--- a/output/DiagnosticReport/servicerequest-diag-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-diag-report-1.xlsx
@@ -919,7 +919,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-identified-1)
 </t>
   </si>
   <si>

--- a/output/DiagnosticReport/servicerequest-diag-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-diag-report-1.xlsx
@@ -919,7 +919,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-identified-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-identified-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-identified-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/relatedperson-identified-1)
 </t>
   </si>
   <si>

--- a/output/DiagnosticReport/servicerequest-diag-report-1.xlsx
+++ b/output/DiagnosticReport/servicerequest-diag-report-1.xlsx
@@ -919,7 +919,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-identified-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-identified-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/relatedperson-identified-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-identified-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-identified-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-identified-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/relatedperson-identified-1)
 </t>
   </si>
   <si>
